--- a/biology/Zoologie/Jotus_karllagerfeldi/Jotus_karllagerfeldi.xlsx
+++ b/biology/Zoologie/Jotus_karllagerfeldi/Jotus_karllagerfeldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jotus karllagerfeldi est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jotus karllagerfeldi est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre vers le lac Broadwater près de Dalby[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre vers le lac Broadwater près de Dalby.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se rencontre en forêt[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se rencontre en forêt.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 5,3 mm, la carapace mesure 2,8 mm de long sur 2,1 mm et l'abdomen 2,5 mm de long sur 1,7 mm[2].
-Les pattes et les organes tactiles des mâles sont annelés de noir et de blanc[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 5,3 mm, la carapace mesure 2,8 mm de long sur 2,1 mm et l'abdomen 2,5 mm de long sur 1,7 mm.
+Les pattes et les organes tactiles des mâles sont annelés de noir et de blanc.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Baher, Schubert (d) et Harms (d) en 2019.
 </t>
@@ -636,9 +656,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du couturier Karl Lagerfeld[2] et ce en référence à sa couleur noire et blanche évoquant la « signature » de ce couturier, et notamment les pattes noires de l'araignée comme les gants de Lagerfeld[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du couturier Karl Lagerfeld et ce en référence à sa couleur noire et blanche évoquant la « signature » de ce couturier, et notamment les pattes noires de l'araignée comme les gants de Lagerfeld.
 </t>
         </is>
       </c>
@@ -667,7 +689,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Baehr, Schubert &amp; Harms, 2019 : « The brushed jumping spiders (Araneae, Salticidae, Jotus L. Koch, 1881) from eastern Australia. » Evolutionary Systematics, vol. 3, p. 53-73 (texte intégral).</t>
         </is>
